--- a/Warehouse Manager/Defaults/Components_default.xlsx
+++ b/Warehouse Manager/Defaults/Components_default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Warehouse\Warehouse Manager\Defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E782982E-7120-4BD5-93CC-7CBC175DE5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B265E4-1BD6-4299-B352-042E41061B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Slots" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>Stored</t>
-  </si>
-  <si>
-    <t>NewCommand</t>
   </si>
   <si>
     <t>Dispatched</t>
@@ -204,6 +201,39 @@
   </si>
   <si>
     <t>TargetZ</t>
+  </si>
+  <si>
+    <t>READY: I can accept new commands, the queue is not full: Command Line: Working Command</t>
+  </si>
+  <si>
+    <t>OCCUPIED: Queue is full: Command Line: Working Command</t>
+  </si>
+  <si>
+    <t>COMMAND_ERROR: The command is not correct: Command Line: Wrong Command</t>
+  </si>
+  <si>
+    <t>SYSTEM_ERROR: Plc error (sensors/motors): Command Line: no meaning, ErrorNumber: AlertIndex</t>
+  </si>
+  <si>
+    <t>MAINTENANCE: Command Line: no meaning</t>
+  </si>
+  <si>
+    <t>NEW_COMMAND: Queue is not full, there is a new command to read: Command Line: New Command [setted by python, resetted by plc]</t>
+  </si>
+  <si>
+    <t>COMMAND_DONE: No matter the queue status, give the last done command: Command Line: Last Command Done [setted by plc, resetted by python]</t>
+  </si>
+  <si>
+    <t>New Command</t>
+  </si>
+  <si>
+    <t>Command Done</t>
+  </si>
+  <si>
+    <t>UNKNOWN: No matter the queue status, no matter command line, none can write</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -827,16 +857,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" t="s">
-        <v>55</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -915,7 +945,7 @@
         <v>144000</v>
       </c>
       <c r="P2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -966,7 +996,7 @@
         <v>144000</v>
       </c>
       <c r="P3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -1017,7 +1047,7 @@
         <v>144000</v>
       </c>
       <c r="P4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1068,7 +1098,7 @@
         <v>144000</v>
       </c>
       <c r="P5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1119,7 +1149,7 @@
         <v>144000</v>
       </c>
       <c r="P6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1170,7 +1200,7 @@
         <v>144000</v>
       </c>
       <c r="P7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1221,7 +1251,7 @@
         <v>144000</v>
       </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1272,7 +1302,7 @@
         <v>144000</v>
       </c>
       <c r="P9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1323,7 +1353,7 @@
         <v>144000</v>
       </c>
       <c r="P10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1374,7 +1404,7 @@
         <v>144000</v>
       </c>
       <c r="P11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1425,7 +1455,7 @@
         <v>144000</v>
       </c>
       <c r="P12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1476,7 +1506,7 @@
         <v>144000</v>
       </c>
       <c r="P13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1527,7 +1557,7 @@
         <v>144000</v>
       </c>
       <c r="P14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1578,7 +1608,7 @@
         <v>144000</v>
       </c>
       <c r="P15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1629,7 +1659,7 @@
         <v>144000</v>
       </c>
       <c r="P16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1680,7 +1710,7 @@
         <v>144000</v>
       </c>
       <c r="P17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -1731,7 +1761,7 @@
         <v>144000</v>
       </c>
       <c r="P18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -1782,7 +1812,7 @@
         <v>144000</v>
       </c>
       <c r="P19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -1833,7 +1863,7 @@
         <v>144000</v>
       </c>
       <c r="P20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -1884,7 +1914,7 @@
         <v>144000</v>
       </c>
       <c r="P21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -1935,7 +1965,7 @@
         <v>288000</v>
       </c>
       <c r="P22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -1986,7 +2016,7 @@
         <v>288000</v>
       </c>
       <c r="P23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2037,7 +2067,7 @@
         <v>288000</v>
       </c>
       <c r="P24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -2088,7 +2118,7 @@
         <v>288000</v>
       </c>
       <c r="P25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -2139,7 +2169,7 @@
         <v>288000</v>
       </c>
       <c r="P26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2190,7 +2220,7 @@
         <v>288000</v>
       </c>
       <c r="P27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
@@ -2241,7 +2271,7 @@
         <v>288000</v>
       </c>
       <c r="P28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -2292,7 +2322,7 @@
         <v>288000</v>
       </c>
       <c r="P29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
@@ -2343,7 +2373,7 @@
         <v>288000</v>
       </c>
       <c r="P30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -2394,7 +2424,7 @@
         <v>288000</v>
       </c>
       <c r="P31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
@@ -2445,7 +2475,7 @@
         <v>288000</v>
       </c>
       <c r="P32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -2496,7 +2526,7 @@
         <v>288000</v>
       </c>
       <c r="P33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
@@ -2547,7 +2577,7 @@
         <v>288000</v>
       </c>
       <c r="P34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -2598,7 +2628,7 @@
         <v>288000</v>
       </c>
       <c r="P35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -2649,7 +2679,7 @@
         <v>288000</v>
       </c>
       <c r="P36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -2700,7 +2730,7 @@
         <v>288000</v>
       </c>
       <c r="P37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -2751,7 +2781,7 @@
         <v>288000</v>
       </c>
       <c r="P38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -2802,7 +2832,7 @@
         <v>288000</v>
       </c>
       <c r="P39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -2853,7 +2883,7 @@
         <v>288000</v>
       </c>
       <c r="P40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -2904,7 +2934,7 @@
         <v>288000</v>
       </c>
       <c r="P41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
@@ -2955,7 +2985,7 @@
         <v>432000</v>
       </c>
       <c r="P42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -3006,7 +3036,7 @@
         <v>432000</v>
       </c>
       <c r="P43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -3057,7 +3087,7 @@
         <v>432000</v>
       </c>
       <c r="P44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -3108,7 +3138,7 @@
         <v>432000</v>
       </c>
       <c r="P45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -3159,7 +3189,7 @@
         <v>432000</v>
       </c>
       <c r="P46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -3210,7 +3240,7 @@
         <v>432000</v>
       </c>
       <c r="P47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -3261,7 +3291,7 @@
         <v>432000</v>
       </c>
       <c r="P48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
@@ -3312,7 +3342,7 @@
         <v>432000</v>
       </c>
       <c r="P49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
@@ -3363,7 +3393,7 @@
         <v>432000</v>
       </c>
       <c r="P50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
@@ -3414,7 +3444,7 @@
         <v>432000</v>
       </c>
       <c r="P51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
@@ -3465,7 +3495,7 @@
         <v>432000</v>
       </c>
       <c r="P52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
@@ -3516,7 +3546,7 @@
         <v>432000</v>
       </c>
       <c r="P53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
@@ -3567,7 +3597,7 @@
         <v>432000</v>
       </c>
       <c r="P54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -3618,7 +3648,7 @@
         <v>432000</v>
       </c>
       <c r="P55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
@@ -3669,7 +3699,7 @@
         <v>432000</v>
       </c>
       <c r="P56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
@@ -3720,7 +3750,7 @@
         <v>432000</v>
       </c>
       <c r="P57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
@@ -3771,7 +3801,7 @@
         <v>432000</v>
       </c>
       <c r="P58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -3822,7 +3852,7 @@
         <v>432000</v>
       </c>
       <c r="P59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -3873,7 +3903,7 @@
         <v>432000</v>
       </c>
       <c r="P60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -3924,7 +3954,7 @@
         <v>432000</v>
       </c>
       <c r="P61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -3975,7 +4005,7 @@
         <v>144000</v>
       </c>
       <c r="P62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -4026,7 +4056,7 @@
         <v>144000</v>
       </c>
       <c r="P63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -4077,7 +4107,7 @@
         <v>144000</v>
       </c>
       <c r="P64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
@@ -4128,7 +4158,7 @@
         <v>144000</v>
       </c>
       <c r="P65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
@@ -4179,7 +4209,7 @@
         <v>144000</v>
       </c>
       <c r="P66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
@@ -4230,7 +4260,7 @@
         <v>144000</v>
       </c>
       <c r="P67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
@@ -4281,7 +4311,7 @@
         <v>144000</v>
       </c>
       <c r="P68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
@@ -4332,7 +4362,7 @@
         <v>144000</v>
       </c>
       <c r="P69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
@@ -4383,7 +4413,7 @@
         <v>144000</v>
       </c>
       <c r="P70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
@@ -4434,7 +4464,7 @@
         <v>144000</v>
       </c>
       <c r="P71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
@@ -4485,7 +4515,7 @@
         <v>144000</v>
       </c>
       <c r="P72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
@@ -4536,7 +4566,7 @@
         <v>144000</v>
       </c>
       <c r="P73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
@@ -4587,7 +4617,7 @@
         <v>144000</v>
       </c>
       <c r="P74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
@@ -4638,7 +4668,7 @@
         <v>144000</v>
       </c>
       <c r="P75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -4689,7 +4719,7 @@
         <v>144000</v>
       </c>
       <c r="P76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
@@ -4740,7 +4770,7 @@
         <v>144000</v>
       </c>
       <c r="P77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
@@ -4791,7 +4821,7 @@
         <v>144000</v>
       </c>
       <c r="P78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
@@ -4842,7 +4872,7 @@
         <v>144000</v>
       </c>
       <c r="P79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
@@ -4893,7 +4923,7 @@
         <v>144000</v>
       </c>
       <c r="P80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
@@ -4944,7 +4974,7 @@
         <v>144000</v>
       </c>
       <c r="P81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
@@ -4995,7 +5025,7 @@
         <v>288000</v>
       </c>
       <c r="P82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
@@ -5046,7 +5076,7 @@
         <v>288000</v>
       </c>
       <c r="P83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
@@ -5097,7 +5127,7 @@
         <v>288000</v>
       </c>
       <c r="P84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
@@ -5148,7 +5178,7 @@
         <v>288000</v>
       </c>
       <c r="P85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
@@ -5199,7 +5229,7 @@
         <v>288000</v>
       </c>
       <c r="P86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
@@ -5250,7 +5280,7 @@
         <v>288000</v>
       </c>
       <c r="P87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
@@ -5301,7 +5331,7 @@
         <v>288000</v>
       </c>
       <c r="P88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
@@ -5352,7 +5382,7 @@
         <v>288000</v>
       </c>
       <c r="P89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
@@ -5403,7 +5433,7 @@
         <v>288000</v>
       </c>
       <c r="P90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
@@ -5454,7 +5484,7 @@
         <v>288000</v>
       </c>
       <c r="P91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
@@ -5505,7 +5535,7 @@
         <v>288000</v>
       </c>
       <c r="P92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
@@ -5556,7 +5586,7 @@
         <v>288000</v>
       </c>
       <c r="P93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
@@ -5607,7 +5637,7 @@
         <v>288000</v>
       </c>
       <c r="P94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
@@ -5658,7 +5688,7 @@
         <v>288000</v>
       </c>
       <c r="P95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
@@ -5709,7 +5739,7 @@
         <v>288000</v>
       </c>
       <c r="P96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
@@ -5760,7 +5790,7 @@
         <v>288000</v>
       </c>
       <c r="P97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
@@ -5811,7 +5841,7 @@
         <v>288000</v>
       </c>
       <c r="P98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
@@ -5862,7 +5892,7 @@
         <v>288000</v>
       </c>
       <c r="P99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
@@ -5913,7 +5943,7 @@
         <v>288000</v>
       </c>
       <c r="P100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
@@ -5964,7 +5994,7 @@
         <v>288000</v>
       </c>
       <c r="P101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
@@ -6015,7 +6045,7 @@
         <v>432000</v>
       </c>
       <c r="P102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
@@ -6066,7 +6096,7 @@
         <v>432000</v>
       </c>
       <c r="P103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
@@ -6117,7 +6147,7 @@
         <v>432000</v>
       </c>
       <c r="P104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
@@ -6168,7 +6198,7 @@
         <v>432000</v>
       </c>
       <c r="P105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
@@ -6219,7 +6249,7 @@
         <v>432000</v>
       </c>
       <c r="P106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
@@ -6270,7 +6300,7 @@
         <v>432000</v>
       </c>
       <c r="P107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
@@ -6321,7 +6351,7 @@
         <v>432000</v>
       </c>
       <c r="P108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
@@ -6372,7 +6402,7 @@
         <v>432000</v>
       </c>
       <c r="P109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
@@ -6423,7 +6453,7 @@
         <v>432000</v>
       </c>
       <c r="P110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
@@ -6474,7 +6504,7 @@
         <v>432000</v>
       </c>
       <c r="P111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
@@ -6525,7 +6555,7 @@
         <v>432000</v>
       </c>
       <c r="P112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
@@ -6576,7 +6606,7 @@
         <v>432000</v>
       </c>
       <c r="P113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
@@ -6627,7 +6657,7 @@
         <v>432000</v>
       </c>
       <c r="P114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
@@ -6678,7 +6708,7 @@
         <v>432000</v>
       </c>
       <c r="P115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
@@ -6729,7 +6759,7 @@
         <v>432000</v>
       </c>
       <c r="P116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
@@ -6780,7 +6810,7 @@
         <v>432000</v>
       </c>
       <c r="P117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
@@ -6831,7 +6861,7 @@
         <v>432000</v>
       </c>
       <c r="P118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
@@ -6882,7 +6912,7 @@
         <v>432000</v>
       </c>
       <c r="P119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
@@ -6933,7 +6963,7 @@
         <v>432000</v>
       </c>
       <c r="P120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
@@ -6984,7 +7014,7 @@
         <v>432000</v>
       </c>
       <c r="P121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
@@ -7035,7 +7065,7 @@
         <v>144000</v>
       </c>
       <c r="P122" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
@@ -7086,7 +7116,7 @@
         <v>144000</v>
       </c>
       <c r="P123" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
@@ -7137,7 +7167,7 @@
         <v>144000</v>
       </c>
       <c r="P124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
@@ -7188,7 +7218,7 @@
         <v>144000</v>
       </c>
       <c r="P125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
@@ -7239,7 +7269,7 @@
         <v>144000</v>
       </c>
       <c r="P126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
@@ -7290,7 +7320,7 @@
         <v>144000</v>
       </c>
       <c r="P127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.3">
@@ -7341,7 +7371,7 @@
         <v>144000</v>
       </c>
       <c r="P128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.3">
@@ -7392,7 +7422,7 @@
         <v>144000</v>
       </c>
       <c r="P129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.3">
@@ -7443,7 +7473,7 @@
         <v>144000</v>
       </c>
       <c r="P130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.3">
@@ -7494,7 +7524,7 @@
         <v>144000</v>
       </c>
       <c r="P131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.3">
@@ -7545,7 +7575,7 @@
         <v>144000</v>
       </c>
       <c r="P132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.3">
@@ -7596,7 +7626,7 @@
         <v>144000</v>
       </c>
       <c r="P133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.3">
@@ -7647,7 +7677,7 @@
         <v>144000</v>
       </c>
       <c r="P134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.3">
@@ -7698,7 +7728,7 @@
         <v>144000</v>
       </c>
       <c r="P135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.3">
@@ -7749,7 +7779,7 @@
         <v>144000</v>
       </c>
       <c r="P136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.3">
@@ -7800,7 +7830,7 @@
         <v>144000</v>
       </c>
       <c r="P137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.3">
@@ -7851,7 +7881,7 @@
         <v>144000</v>
       </c>
       <c r="P138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.3">
@@ -7902,7 +7932,7 @@
         <v>144000</v>
       </c>
       <c r="P139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.3">
@@ -7953,7 +7983,7 @@
         <v>144000</v>
       </c>
       <c r="P140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.3">
@@ -8004,7 +8034,7 @@
         <v>144000</v>
       </c>
       <c r="P141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.3">
@@ -8055,7 +8085,7 @@
         <v>288000</v>
       </c>
       <c r="P142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.3">
@@ -8106,7 +8136,7 @@
         <v>288000</v>
       </c>
       <c r="P143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.3">
@@ -8157,7 +8187,7 @@
         <v>288000</v>
       </c>
       <c r="P144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.3">
@@ -8208,7 +8238,7 @@
         <v>288000</v>
       </c>
       <c r="P145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.3">
@@ -8259,7 +8289,7 @@
         <v>288000</v>
       </c>
       <c r="P146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.3">
@@ -8310,7 +8340,7 @@
         <v>288000</v>
       </c>
       <c r="P147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.3">
@@ -8361,7 +8391,7 @@
         <v>288000</v>
       </c>
       <c r="P148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.3">
@@ -8412,7 +8442,7 @@
         <v>288000</v>
       </c>
       <c r="P149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.3">
@@ -8463,7 +8493,7 @@
         <v>288000</v>
       </c>
       <c r="P150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.3">
@@ -8514,7 +8544,7 @@
         <v>288000</v>
       </c>
       <c r="P151" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.3">
@@ -8565,7 +8595,7 @@
         <v>288000</v>
       </c>
       <c r="P152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.3">
@@ -8616,7 +8646,7 @@
         <v>288000</v>
       </c>
       <c r="P153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.3">
@@ -8667,7 +8697,7 @@
         <v>288000</v>
       </c>
       <c r="P154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.3">
@@ -8718,7 +8748,7 @@
         <v>288000</v>
       </c>
       <c r="P155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.3">
@@ -8769,7 +8799,7 @@
         <v>288000</v>
       </c>
       <c r="P156" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.3">
@@ -8820,7 +8850,7 @@
         <v>288000</v>
       </c>
       <c r="P157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.3">
@@ -8871,7 +8901,7 @@
         <v>288000</v>
       </c>
       <c r="P158" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.3">
@@ -8922,7 +8952,7 @@
         <v>288000</v>
       </c>
       <c r="P159" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.3">
@@ -8973,7 +9003,7 @@
         <v>288000</v>
       </c>
       <c r="P160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.3">
@@ -9024,7 +9054,7 @@
         <v>288000</v>
       </c>
       <c r="P161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.3">
@@ -9075,7 +9105,7 @@
         <v>432000</v>
       </c>
       <c r="P162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.3">
@@ -9126,7 +9156,7 @@
         <v>432000</v>
       </c>
       <c r="P163" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.3">
@@ -9177,7 +9207,7 @@
         <v>432000</v>
       </c>
       <c r="P164" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.3">
@@ -9228,7 +9258,7 @@
         <v>432000</v>
       </c>
       <c r="P165" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.3">
@@ -9279,7 +9309,7 @@
         <v>432000</v>
       </c>
       <c r="P166" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.3">
@@ -9330,7 +9360,7 @@
         <v>432000</v>
       </c>
       <c r="P167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.3">
@@ -9381,7 +9411,7 @@
         <v>432000</v>
       </c>
       <c r="P168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.3">
@@ -9432,7 +9462,7 @@
         <v>432000</v>
       </c>
       <c r="P169" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.3">
@@ -9483,7 +9513,7 @@
         <v>432000</v>
       </c>
       <c r="P170" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.3">
@@ -9534,7 +9564,7 @@
         <v>432000</v>
       </c>
       <c r="P171" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.3">
@@ -9585,7 +9615,7 @@
         <v>432000</v>
       </c>
       <c r="P172" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.3">
@@ -9636,7 +9666,7 @@
         <v>432000</v>
       </c>
       <c r="P173" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.3">
@@ -9687,7 +9717,7 @@
         <v>432000</v>
       </c>
       <c r="P174" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.3">
@@ -9738,7 +9768,7 @@
         <v>432000</v>
       </c>
       <c r="P175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.3">
@@ -9789,7 +9819,7 @@
         <v>432000</v>
       </c>
       <c r="P176" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.3">
@@ -9840,7 +9870,7 @@
         <v>432000</v>
       </c>
       <c r="P177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.3">
@@ -9891,7 +9921,7 @@
         <v>432000</v>
       </c>
       <c r="P178" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.3">
@@ -9942,7 +9972,7 @@
         <v>432000</v>
       </c>
       <c r="P179" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.3">
@@ -9993,7 +10023,7 @@
         <v>432000</v>
       </c>
       <c r="P180" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.3">
@@ -10044,7 +10074,7 @@
         <v>432000</v>
       </c>
       <c r="P181" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.3">
@@ -10095,7 +10125,7 @@
         <v>432000</v>
       </c>
       <c r="P182" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.3">
@@ -10146,7 +10176,7 @@
         <v>432000</v>
       </c>
       <c r="P183" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.3">
@@ -10197,7 +10227,7 @@
         <v>432000</v>
       </c>
       <c r="P184" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.3">
@@ -10248,7 +10278,7 @@
         <v>432000</v>
       </c>
       <c r="P185" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.3">
@@ -10299,7 +10329,7 @@
         <v>432000</v>
       </c>
       <c r="P186" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.3">
@@ -10350,7 +10380,7 @@
         <v>432000</v>
       </c>
       <c r="P187" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.3">
@@ -10401,7 +10431,7 @@
         <v>432000</v>
       </c>
       <c r="P188" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.3">
@@ -10452,7 +10482,7 @@
         <v>432000</v>
       </c>
       <c r="P189" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.3">
@@ -10503,7 +10533,7 @@
         <v>432000</v>
       </c>
       <c r="P190" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.3">
@@ -10554,7 +10584,7 @@
         <v>432000</v>
       </c>
       <c r="P191" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.3">
@@ -10605,7 +10635,7 @@
         <v>432000</v>
       </c>
       <c r="P192" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.3">
@@ -10656,7 +10686,7 @@
         <v>432000</v>
       </c>
       <c r="P193" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.3">
@@ -10707,7 +10737,7 @@
         <v>432000</v>
       </c>
       <c r="P194" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.3">
@@ -10758,7 +10788,7 @@
         <v>432000</v>
       </c>
       <c r="P195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.3">
@@ -10809,7 +10839,7 @@
         <v>432000</v>
       </c>
       <c r="P196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.3">
@@ -10860,7 +10890,7 @@
         <v>432000</v>
       </c>
       <c r="P197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.3">
@@ -10911,7 +10941,7 @@
         <v>432000</v>
       </c>
       <c r="P198" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.3">
@@ -10962,7 +10992,7 @@
         <v>432000</v>
       </c>
       <c r="P199" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.3">
@@ -11013,7 +11043,7 @@
         <v>432000</v>
       </c>
       <c r="P200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.3">
@@ -11064,7 +11094,7 @@
         <v>432000</v>
       </c>
       <c r="P201" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -11079,7 +11109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8A6254-65E5-4923-B672-150EB7D6CCB1}">
   <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T209" sqref="T209"/>
     </sheetView>
   </sheetViews>
@@ -11103,7 +11133,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -11127,10 +11157,10 @@
         <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>14</v>
@@ -11183,7 +11213,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -11230,7 +11260,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -11277,7 +11307,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -11324,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -11371,7 +11401,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -11418,7 +11448,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -11465,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -11512,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -11559,7 +11589,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -11606,7 +11636,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -11653,7 +11683,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -11700,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -11747,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -11794,7 +11824,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -11841,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -11888,7 +11918,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -11935,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -11982,7 +12012,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -12029,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -12076,7 +12106,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -12123,7 +12153,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -12170,7 +12200,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -12217,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -12264,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -12311,7 +12341,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -12358,7 +12388,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -12405,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -12452,7 +12482,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -12499,7 +12529,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -12546,7 +12576,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -12593,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -12640,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -12687,7 +12717,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -12734,7 +12764,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -12781,7 +12811,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -12828,7 +12858,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -12875,7 +12905,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -12922,7 +12952,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -12969,7 +12999,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -13016,7 +13046,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -13063,7 +13093,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -13110,7 +13140,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -13157,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -13204,7 +13234,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -13251,7 +13281,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -13298,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -13345,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -13392,7 +13422,7 @@
         <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -13439,7 +13469,7 @@
         <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -13486,7 +13516,7 @@
         <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -13533,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -13580,7 +13610,7 @@
         <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -13627,7 +13657,7 @@
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -13674,7 +13704,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -13721,7 +13751,7 @@
         <v>0</v>
       </c>
       <c r="O56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -13768,7 +13798,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -13815,7 +13845,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -13862,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -13909,7 +13939,7 @@
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -13956,7 +13986,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -14003,7 +14033,7 @@
         <v>0</v>
       </c>
       <c r="O62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -14050,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -14097,7 +14127,7 @@
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -14144,7 +14174,7 @@
         <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -14191,7 +14221,7 @@
         <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -14238,7 +14268,7 @@
         <v>0</v>
       </c>
       <c r="O67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -14285,7 +14315,7 @@
         <v>0</v>
       </c>
       <c r="O68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -14332,7 +14362,7 @@
         <v>0</v>
       </c>
       <c r="O69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
@@ -14379,7 +14409,7 @@
         <v>0</v>
       </c>
       <c r="O70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
@@ -14426,7 +14456,7 @@
         <v>0</v>
       </c>
       <c r="O71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -14473,7 +14503,7 @@
         <v>0</v>
       </c>
       <c r="O72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -14520,7 +14550,7 @@
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -14567,7 +14597,7 @@
         <v>0</v>
       </c>
       <c r="O74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -14614,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -14661,7 +14691,7 @@
         <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -14708,7 +14738,7 @@
         <v>0</v>
       </c>
       <c r="O77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -14755,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
@@ -14802,7 +14832,7 @@
         <v>0</v>
       </c>
       <c r="O79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
@@ -14849,7 +14879,7 @@
         <v>0</v>
       </c>
       <c r="O80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -14896,7 +14926,7 @@
         <v>0</v>
       </c>
       <c r="O81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -14943,7 +14973,7 @@
         <v>0</v>
       </c>
       <c r="O82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
@@ -14990,7 +15020,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -15037,7 +15067,7 @@
         <v>0</v>
       </c>
       <c r="O84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -15084,7 +15114,7 @@
         <v>0</v>
       </c>
       <c r="O85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -15131,7 +15161,7 @@
         <v>0</v>
       </c>
       <c r="O86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
@@ -15178,7 +15208,7 @@
         <v>0</v>
       </c>
       <c r="O87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
@@ -15225,7 +15255,7 @@
         <v>0</v>
       </c>
       <c r="O88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
@@ -15272,7 +15302,7 @@
         <v>0</v>
       </c>
       <c r="O89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -15319,7 +15349,7 @@
         <v>0</v>
       </c>
       <c r="O90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -15366,7 +15396,7 @@
         <v>0</v>
       </c>
       <c r="O91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -15413,7 +15443,7 @@
         <v>0</v>
       </c>
       <c r="O92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -15460,7 +15490,7 @@
         <v>0</v>
       </c>
       <c r="O93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
@@ -15507,7 +15537,7 @@
         <v>0</v>
       </c>
       <c r="O94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
@@ -15554,7 +15584,7 @@
         <v>0</v>
       </c>
       <c r="O95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
@@ -15601,7 +15631,7 @@
         <v>0</v>
       </c>
       <c r="O96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
@@ -15648,7 +15678,7 @@
         <v>0</v>
       </c>
       <c r="O97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
@@ -15695,7 +15725,7 @@
         <v>0</v>
       </c>
       <c r="O98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
@@ -15742,7 +15772,7 @@
         <v>0</v>
       </c>
       <c r="O99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
@@ -15789,7 +15819,7 @@
         <v>0</v>
       </c>
       <c r="O100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
@@ -15836,7 +15866,7 @@
         <v>0</v>
       </c>
       <c r="O101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
@@ -15883,7 +15913,7 @@
         <v>0</v>
       </c>
       <c r="O102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
@@ -15930,7 +15960,7 @@
         <v>0</v>
       </c>
       <c r="O103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
@@ -15977,7 +16007,7 @@
         <v>0</v>
       </c>
       <c r="O104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
@@ -16024,7 +16054,7 @@
         <v>0</v>
       </c>
       <c r="O105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
@@ -16071,7 +16101,7 @@
         <v>0</v>
       </c>
       <c r="O106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -16118,7 +16148,7 @@
         <v>0</v>
       </c>
       <c r="O107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
@@ -16165,7 +16195,7 @@
         <v>0</v>
       </c>
       <c r="O108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
@@ -16212,7 +16242,7 @@
         <v>0</v>
       </c>
       <c r="O109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
@@ -16259,7 +16289,7 @@
         <v>0</v>
       </c>
       <c r="O110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
@@ -16306,7 +16336,7 @@
         <v>0</v>
       </c>
       <c r="O111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
@@ -16353,7 +16383,7 @@
         <v>0</v>
       </c>
       <c r="O112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.3">
@@ -16400,7 +16430,7 @@
         <v>0</v>
       </c>
       <c r="O113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
@@ -16447,7 +16477,7 @@
         <v>0</v>
       </c>
       <c r="O114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
@@ -16494,7 +16524,7 @@
         <v>0</v>
       </c>
       <c r="O115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
@@ -16541,7 +16571,7 @@
         <v>0</v>
       </c>
       <c r="O116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
@@ -16588,7 +16618,7 @@
         <v>0</v>
       </c>
       <c r="O117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
@@ -16635,7 +16665,7 @@
         <v>0</v>
       </c>
       <c r="O118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
@@ -16682,7 +16712,7 @@
         <v>0</v>
       </c>
       <c r="O119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
@@ -16729,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="O120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
@@ -16776,7 +16806,7 @@
         <v>0</v>
       </c>
       <c r="O121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
@@ -16823,7 +16853,7 @@
         <v>0</v>
       </c>
       <c r="O122" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
@@ -16870,7 +16900,7 @@
         <v>0</v>
       </c>
       <c r="O123" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
@@ -16917,7 +16947,7 @@
         <v>0</v>
       </c>
       <c r="O124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
@@ -16964,7 +16994,7 @@
         <v>0</v>
       </c>
       <c r="O125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
@@ -17011,7 +17041,7 @@
         <v>0</v>
       </c>
       <c r="O126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
@@ -17058,7 +17088,7 @@
         <v>0</v>
       </c>
       <c r="O127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
@@ -17105,7 +17135,7 @@
         <v>0</v>
       </c>
       <c r="O128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
@@ -17152,7 +17182,7 @@
         <v>0</v>
       </c>
       <c r="O129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.3">
@@ -17199,7 +17229,7 @@
         <v>0</v>
       </c>
       <c r="O130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
@@ -17246,7 +17276,7 @@
         <v>0</v>
       </c>
       <c r="O131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.3">
@@ -17293,7 +17323,7 @@
         <v>0</v>
       </c>
       <c r="O132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
@@ -17340,7 +17370,7 @@
         <v>0</v>
       </c>
       <c r="O133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
@@ -17387,7 +17417,7 @@
         <v>0</v>
       </c>
       <c r="O134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
@@ -17434,7 +17464,7 @@
         <v>0</v>
       </c>
       <c r="O135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.3">
@@ -17481,7 +17511,7 @@
         <v>0</v>
       </c>
       <c r="O136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.3">
@@ -17528,7 +17558,7 @@
         <v>0</v>
       </c>
       <c r="O137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.3">
@@ -17575,7 +17605,7 @@
         <v>0</v>
       </c>
       <c r="O138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.3">
@@ -17622,7 +17652,7 @@
         <v>0</v>
       </c>
       <c r="O139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
@@ -17669,7 +17699,7 @@
         <v>0</v>
       </c>
       <c r="O140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
@@ -17716,7 +17746,7 @@
         <v>0</v>
       </c>
       <c r="O141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
@@ -17763,7 +17793,7 @@
         <v>0</v>
       </c>
       <c r="O142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.3">
@@ -17810,7 +17840,7 @@
         <v>0</v>
       </c>
       <c r="O143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.3">
@@ -17857,7 +17887,7 @@
         <v>0</v>
       </c>
       <c r="O144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.3">
@@ -17904,7 +17934,7 @@
         <v>0</v>
       </c>
       <c r="O145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.3">
@@ -17951,7 +17981,7 @@
         <v>0</v>
       </c>
       <c r="O146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
@@ -17998,7 +18028,7 @@
         <v>0</v>
       </c>
       <c r="O147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.3">
@@ -18045,7 +18075,7 @@
         <v>0</v>
       </c>
       <c r="O148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.3">
@@ -18092,7 +18122,7 @@
         <v>0</v>
       </c>
       <c r="O149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.3">
@@ -18139,7 +18169,7 @@
         <v>0</v>
       </c>
       <c r="O150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
@@ -18186,7 +18216,7 @@
         <v>0</v>
       </c>
       <c r="O151" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.3">
@@ -18233,7 +18263,7 @@
         <v>0</v>
       </c>
       <c r="O152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.3">
@@ -18280,7 +18310,7 @@
         <v>0</v>
       </c>
       <c r="O153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.3">
@@ -18327,7 +18357,7 @@
         <v>0</v>
       </c>
       <c r="O154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.3">
@@ -18374,7 +18404,7 @@
         <v>0</v>
       </c>
       <c r="O155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.3">
@@ -18421,7 +18451,7 @@
         <v>0</v>
       </c>
       <c r="O156" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.3">
@@ -18468,7 +18498,7 @@
         <v>0</v>
       </c>
       <c r="O157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.3">
@@ -18515,7 +18545,7 @@
         <v>0</v>
       </c>
       <c r="O158" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
@@ -18562,7 +18592,7 @@
         <v>0</v>
       </c>
       <c r="O159" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.3">
@@ -18609,7 +18639,7 @@
         <v>0</v>
       </c>
       <c r="O160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.3">
@@ -18656,7 +18686,7 @@
         <v>0</v>
       </c>
       <c r="O161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.3">
@@ -18703,7 +18733,7 @@
         <v>0</v>
       </c>
       <c r="O162" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
@@ -18750,7 +18780,7 @@
         <v>0</v>
       </c>
       <c r="O163" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.3">
@@ -18797,7 +18827,7 @@
         <v>0</v>
       </c>
       <c r="O164" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.3">
@@ -18844,7 +18874,7 @@
         <v>0</v>
       </c>
       <c r="O165" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
@@ -18891,7 +18921,7 @@
         <v>0</v>
       </c>
       <c r="O166" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.3">
@@ -18938,7 +18968,7 @@
         <v>0</v>
       </c>
       <c r="O167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.3">
@@ -18985,7 +19015,7 @@
         <v>0</v>
       </c>
       <c r="O168" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
@@ -19032,7 +19062,7 @@
         <v>0</v>
       </c>
       <c r="O169" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.3">
@@ -19079,7 +19109,7 @@
         <v>0</v>
       </c>
       <c r="O170" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
@@ -19126,7 +19156,7 @@
         <v>0</v>
       </c>
       <c r="O171" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.3">
@@ -19173,7 +19203,7 @@
         <v>0</v>
       </c>
       <c r="O172" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
@@ -19220,7 +19250,7 @@
         <v>0</v>
       </c>
       <c r="O173" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.3">
@@ -19267,7 +19297,7 @@
         <v>0</v>
       </c>
       <c r="O174" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.3">
@@ -19314,7 +19344,7 @@
         <v>0</v>
       </c>
       <c r="O175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.3">
@@ -19361,7 +19391,7 @@
         <v>0</v>
       </c>
       <c r="O176" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.3">
@@ -19408,7 +19438,7 @@
         <v>0</v>
       </c>
       <c r="O177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.3">
@@ -19455,7 +19485,7 @@
         <v>0</v>
       </c>
       <c r="O178" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.3">
@@ -19502,7 +19532,7 @@
         <v>0</v>
       </c>
       <c r="O179" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.3">
@@ -19549,7 +19579,7 @@
         <v>0</v>
       </c>
       <c r="O180" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.3">
@@ -19596,7 +19626,7 @@
         <v>0</v>
       </c>
       <c r="O181" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.3">
@@ -19643,7 +19673,7 @@
         <v>0</v>
       </c>
       <c r="O182" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.3">
@@ -19690,7 +19720,7 @@
         <v>0</v>
       </c>
       <c r="O183" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.3">
@@ -19737,7 +19767,7 @@
         <v>0</v>
       </c>
       <c r="O184" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.3">
@@ -19784,7 +19814,7 @@
         <v>0</v>
       </c>
       <c r="O185" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.3">
@@ -19831,7 +19861,7 @@
         <v>0</v>
       </c>
       <c r="O186" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.3">
@@ -19878,7 +19908,7 @@
         <v>0</v>
       </c>
       <c r="O187" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.3">
@@ -19925,7 +19955,7 @@
         <v>0</v>
       </c>
       <c r="O188" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.3">
@@ -19972,7 +20002,7 @@
         <v>0</v>
       </c>
       <c r="O189" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.3">
@@ -20019,7 +20049,7 @@
         <v>0</v>
       </c>
       <c r="O190" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.3">
@@ -20066,7 +20096,7 @@
         <v>0</v>
       </c>
       <c r="O191" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.3">
@@ -20113,7 +20143,7 @@
         <v>0</v>
       </c>
       <c r="O192" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.3">
@@ -20160,7 +20190,7 @@
         <v>0</v>
       </c>
       <c r="O193" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.3">
@@ -20207,7 +20237,7 @@
         <v>0</v>
       </c>
       <c r="O194" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.3">
@@ -20254,7 +20284,7 @@
         <v>0</v>
       </c>
       <c r="O195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.3">
@@ -20301,7 +20331,7 @@
         <v>0</v>
       </c>
       <c r="O196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.3">
@@ -20348,7 +20378,7 @@
         <v>0</v>
       </c>
       <c r="O197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.3">
@@ -20395,7 +20425,7 @@
         <v>0</v>
       </c>
       <c r="O198" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.3">
@@ -20442,7 +20472,7 @@
         <v>0</v>
       </c>
       <c r="O199" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.3">
@@ -20489,7 +20519,7 @@
         <v>0</v>
       </c>
       <c r="O200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.3">
@@ -20536,7 +20566,7 @@
         <v>0</v>
       </c>
       <c r="O201" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -20550,10 +20580,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20566,7 +20596,7 @@
     <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -20586,7 +20616,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -20605,8 +20635,11 @@
       <c r="F2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -20617,155 +20650,185 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
       <c r="F12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
       <c r="D17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -20794,10 +20857,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -20805,7 +20868,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -20813,7 +20876,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -20821,7 +20884,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -20829,15 +20892,15 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -21079,20 +21142,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0786a6a0-d0ce-491c-9482-af6677a0782d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0786a6a0-d0ce-491c-9482-af6677a0782d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21115,6 +21178,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37253E60-5741-402B-A9E0-4CDD3515F96E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A118553A-38E2-4959-9596-49A9A985FBAB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -21129,12 +21200,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37253E60-5741-402B-A9E0-4CDD3515F96E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Warehouse Manager/Defaults/Components_default.xlsx
+++ b/Warehouse Manager/Defaults/Components_default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Warehouse\Warehouse Manager\Defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454D89BD-8DCD-4771-AD0B-361FE7888B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F90E3B-E90C-48F6-B669-51BC718D0333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5976" yWindow="0" windowWidth="17064" windowHeight="10188" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Slots" sheetId="5" r:id="rId1"/>
@@ -306,7 +306,22 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -491,7 +506,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{21235CA6-5A0E-49B8-ADBE-3BBEC2EA356F}" name="Tabella4" displayName="Tabella4" ref="A1:O1001" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{21235CA6-5A0E-49B8-ADBE-3BBEC2EA356F}" name="Tabella4" displayName="Tabella4" ref="A1:O1001" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:O1001" xr:uid="{21235CA6-5A0E-49B8-ADBE-3BBEC2EA356F}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{881521F8-3A36-403A-89CF-3FD2899697C0}" name="ID"/>
@@ -515,10 +530,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A040AAC6-FB7A-4F73-AFA3-B11D4C09CA39}" name="Tabella2" displayName="Tabella2" ref="A1:F21" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A040AAC6-FB7A-4F73-AFA3-B11D4C09CA39}" name="Tabella2" displayName="Tabella2" ref="A1:F21" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A1:F21" xr:uid="{A040AAC6-FB7A-4F73-AFA3-B11D4C09CA39}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C560BA8C-A555-495D-AA48-207B749EC290}" name="Enumeration"/>
+    <tableColumn id="1" xr3:uid="{C560BA8C-A555-495D-AA48-207B749EC290}" name="Enumeration" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4631A140-5AE9-4AF7-BDC5-C24BB348B7A0}" name="Slot State"/>
     <tableColumn id="3" xr3:uid="{73C6846B-429D-4FD9-866F-E9F0B75064E2}" name="Container State"/>
     <tableColumn id="4" xr3:uid="{A34CB157-5654-4EF7-B8C0-B40175E9B729}" name="Plc State"/>
@@ -530,11 +545,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C4A7254-44FD-4CE5-A225-24871254660C}" name="Tabella1" displayName="Tabella1" ref="A1:B6" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C4A7254-44FD-4CE5-A225-24871254660C}" name="Tabella1" displayName="Tabella1" ref="A1:B6" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:B6" xr:uid="{7C4A7254-44FD-4CE5-A225-24871254660C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{79B85F13-9548-441C-9C42-BA34894E18C2}" name="Dimension" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{73D0EE91-BBD3-48E8-91DA-2AC84D3D1B14}" name="Unit" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{79B85F13-9548-441C-9C42-BA34894E18C2}" name="Dimension" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{73D0EE91-BBD3-48E8-91DA-2AC84D3D1B14}" name="Unit" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -839,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624E8E99-32C2-4C33-8CFB-BBA118DF1C3A}">
   <dimension ref="A1:Q201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E185" sqref="E185:E201"/>
     </sheetView>
   </sheetViews>
@@ -20609,8 +20624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20645,7 +20660,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -20668,7 +20683,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -20691,7 +20706,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="D4" t="s">
@@ -20705,7 +20720,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="I5" t="s">
@@ -20713,7 +20728,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="I6" t="s">
@@ -20721,7 +20736,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -20741,7 +20756,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8" t="s">
@@ -20752,7 +20767,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9" t="s">
@@ -20760,17 +20775,17 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -20793,7 +20808,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="D13" t="s">
@@ -20804,22 +20819,22 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -20836,29 +20851,30 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -21164,20 +21180,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0786a6a0-d0ce-491c-9482-af6677a0782d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0786a6a0-d0ce-491c-9482-af6677a0782d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21200,14 +21216,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37253E60-5741-402B-A9E0-4CDD3515F96E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A118553A-38E2-4959-9596-49A9A985FBAB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -21222,4 +21230,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37253E60-5741-402B-A9E0-4CDD3515F96E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>